--- a/Dashboard.xlsx
+++ b/Dashboard.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DC6218-A131-4AB6-ACC9-339B6E96C4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4670D065-2A62-4BA0-8BB8-ABF7EDE67F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE16C6CE-A069-4C82-9609-6B0DAD3F5058}"/>
   </bookViews>
@@ -20,8 +20,16 @@
     <definedName name="Consulta_desde_odbcFerreteria_2" localSheetId="0" hidden="1">Dashboard!$J$5:$J$6</definedName>
     <definedName name="Consulta_desde_odbcFerreteria_3" localSheetId="0" hidden="1">Dashboard!$Q$5:$Q$6</definedName>
     <definedName name="Consulta_desde_odbcFerreteria_4" localSheetId="0" hidden="1">Dashboard!$X$5:$X$6</definedName>
+    <definedName name="Consulta_desde_odbcFerreteria_5" localSheetId="0" hidden="1">Dashboard!$A$20:$A$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="59" r:id="rId2"/>
+    <pivotCache cacheId="61" r:id="rId3"/>
+    <pivotCache cacheId="63" r:id="rId4"/>
+    <pivotCache cacheId="65" r:id="rId5"/>
+    <pivotCache cacheId="67" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,11 +60,29 @@
   <connection id="4" xr16:uid="{E2AA2BAA-CD21-4AC9-97F5-DCC08B985CFB}" name="Consulta desde odbcFerreteria3" type="1" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="DSN=odbcFerreteria;UID=MiguelPC;Trusted_Connection=Yes;APP=Microsoft Office;WSID=MIGUEL;DATABASE=FERRETERIAFANTINO" command="SELECT Sum(compras.total_compra)_x000d__x000a_FROM FERRETERIAFANTINO.dbo.compras compras_x000d__x000a_WHERE (MONTH(fecha_insercion)=datepart(mm,getdate())) AND (compras.estado='A')"/>
   </connection>
+  <connection id="5" xr16:uid="{22363069-22E2-4B09-8A93-B9A63E7A559F}" name="Consulta desde odbcFerreteria4" type="1" refreshedVersion="8" background="1" saveData="1">
+    <dbPr connection="DSN=odbcFerreteria;UID=MiguelPC;Trusted_Connection=Yes;APP=Microsoft Office;WSID=MIGUEL;DATABASE=FERRETERIAFANTINO" command="SELECT TOP 5 C.*,P.nombre_producto FROM compras C, producto P WHERE MONTH(C.fecha_insercion)=DATEPART(mm,GETDATE()-1) ORDER BY C.cantidad DESC"/>
+  </connection>
+  <connection id="6" xr16:uid="{33B19934-082B-4A16-8D55-904CE4D94609}" name="Consulta desde odbcFerreteria5" type="1" refreshedVersion="8" background="1" saveData="1">
+    <dbPr connection="DSN=odbcFerreteria;UID=MiguelPC;Trusted_Connection=Yes;APP=Microsoft Office;WSID=MIGUEL;DATABASE=FERRETERIAFANTINO" command="SELECT TOP 1 P.nombre_producto FROM compras C, producto P WHERE MONTH(C.fecha_insercion)=DATEPART(mm,GETDATE()-1) ORDER BY C.cantidad DESC"/>
+  </connection>
+  <connection id="7" xr16:uid="{44CD6C0A-50B8-4CB7-BB54-DDE84949E270}" name="Consulta desde odbcFerreteria6" type="1" refreshedVersion="8" background="1">
+    <dbPr connection="DSN=odbcFerreteria;UID=MiguelPC;Trusted_Connection=Yes;APP=Microsoft Office;WSID=MIGUEL;DATABASE=FERRETERIAFANTINO" command="SELECT * FROM cliente C,compras COM WHERE C.id_cliente = (SELECT TOP 1 id_cliente FROM compras WHERE YEAR(fecha_insercion)= DATEPART(YY,GETDATE()) GROUP BY id_cliente ORDER BY COUNT(id_cliente) DESC) AND COM.id_cliente =(SELECT TOP 1 id_cliente FROM compras WHERE YEAR(fecha_insercion)= DATEPART(YY,GETDATE()) GROUP BY id_cliente ORDER BY COUNT(id_cliente) DESC) "/>
+  </connection>
+  <connection id="8" xr16:uid="{30F166C3-CDAC-4E2C-80C7-E0D17CE07602}" name="Consulta desde odbcFerreteria7" type="1" refreshedVersion="8" background="1">
+    <dbPr connection="DSN=odbcFerreteria;UID=MiguelPC;Trusted_Connection=Yes;APP=Microsoft Office;WSID=MIGUEL;DATABASE=FERRETERIAFANTINO" command="SELECT * FROM tipo_pago WHERE id_tipo_pago = (SELECT TOP 1 id_tipo_pago FROM compras WHERE MONTH(fecha_insercion)= 7 GROUP BY id_tipo_pago ORDER BY COUNT(id_tipo_pago) DESC)"/>
+  </connection>
+  <connection id="9" xr16:uid="{2A8E2CAC-428F-432B-9868-5794A585B0EB}" name="Consulta desde odbcFerreteria8" type="1" refreshedVersion="8" background="1">
+    <dbPr connection="DSN=odbcFerreteria;UID=MiguelPC;Trusted_Connection=Yes;APP=Microsoft Office;WSID=MIGUEL;DATABASE=FERRETERIAFANTINO" command="SELECT * FROM sucursal WHERE id_sucursal = (SELECT TOP 1 id_sucursal FROM compras GROUP BY id_sucursal ORDER BY COUNT(id_sucursal) ASC)"/>
+  </connection>
+  <connection id="10" xr16:uid="{9C1FA3D6-0DD9-4AD7-8849-61F75E1386FD}" name="Consulta desde odbcFerreteria9" type="1" refreshedVersion="8" background="1">
+    <dbPr connection="DSN=odbcFerreteria;UID=MiguelPC;Trusted_Connection=Yes;APP=Microsoft Office;WSID=MIGUEL;DATABASE=FERRETERIAFANTINO" command="SELECT Sum(compras.total_compra) AS 'dinero'_x000d__x000a_FROM FERRETERIAFANTINO.dbo.compras compras_x000d__x000a_WHERE (MONTH(fecha_insercion)=7)"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t xml:space="preserve">Dashboard </t>
   </si>
@@ -75,15 +101,78 @@
   <si>
     <t>Ventas del mes</t>
   </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>candado</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Suma de cantidad</t>
+  </si>
+  <si>
+    <t>¿Cuáles fueron los 5 productos más vendidos del mes pasado?</t>
+  </si>
+  <si>
+    <t>Etiquetas de columna</t>
+  </si>
+  <si>
+    <t>nombre_producto</t>
+  </si>
+  <si>
+    <t>es:</t>
+  </si>
+  <si>
+    <t>¿Cuál fue el Cliente con más compras realizadas en el año?</t>
+  </si>
+  <si>
+    <t>mario</t>
+  </si>
+  <si>
+    <t>Suma de id_cliente</t>
+  </si>
+  <si>
+    <t>¿Cuál fue el método de pago más usado en el mes de julio?</t>
+  </si>
+  <si>
+    <t>Tarjeta de credito</t>
+  </si>
+  <si>
+    <t>Cuenta de tipo</t>
+  </si>
+  <si>
+    <t>Cuenta de sucursal</t>
+  </si>
+  <si>
+    <t>Plaza 2</t>
+  </si>
+  <si>
+    <t>¿Qué sucursal tuvo menor rendimiento de ventas?</t>
+  </si>
+  <si>
+    <t>BOMBA DE AGUA</t>
+  </si>
+  <si>
+    <t>El producto mas vendido en el mes de</t>
+  </si>
+  <si>
+    <t>¿Cuándo dinero facturo en el mes de Julio?</t>
+  </si>
+  <si>
+    <t>Suma de dinero</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="#,##0.00\ [$DOP]"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ [$DOP]"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,8 +220,33 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF595959"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,8 +265,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF595959"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -166,15 +286,6 @@
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -196,131 +307,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -329,36 +329,102 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -406,6 +472,138 @@
           <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -651,6 +849,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF595959"/>
       <color rgb="FF08979C"/>
       <color rgb="FF10239E"/>
       <color rgb="FF3F7CB1"/>
@@ -666,6 +865,6297 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Dashboard.xlsx]Dashboard!TablaDinámica2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$BG$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$BF$6:$BF$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>candado</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BOMBA DE AGUA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$BG$6:$BG$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-136D-4AE1-86EE-E2A56C8B725D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="595959"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Dashboard.xlsx]Dashboard!TablaDinámica4</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.861292537097495E-2"/>
+          <c:y val="7.4074047071286425E-2"/>
+          <c:w val="0.9025956962969176"/>
+          <c:h val="0.84167474421305621"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$BL$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$BK$5:$BK$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mario</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$BL$5:$BL$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6F73-4FCE-9BFD-57DCFDCC0C4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="935301176"/>
+        <c:axId val="935297896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="935301176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="935297896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="935297896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="935301176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="595959"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="595959"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Dashboard.xlsx]Dashboard!TablaDinámica5</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0574420065779412E-2"/>
+          <c:y val="5.6477153214196427E-2"/>
+          <c:w val="0.70401293437695867"/>
+          <c:h val="0.92473125231679032"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$W$12:$W$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tarjeta de credito</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$V$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$W$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-20DF-4CB5-A089-D8222E3A057E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="935277888"/>
+        <c:axId val="935293304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="935277888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="935293304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="935293304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="935277888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="595959"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Dashboard.xlsx]Dashboard!TablaDinámica6</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$E$39:$E$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Plaza 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$D$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B2AC-4D97-B64A-A535C048AE31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930173984"/>
+        <c:axId val="843788136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930173984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="843788136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="843788136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="930173984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="595959"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Dashboard.xlsx]Dashboard!TablaDinámica7</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$P$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$P$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$P$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A706-4BAB-99CB-FAA6EF7C7A62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:shape val="box"/>
+        <c:axId val="943162104"/>
+        <c:axId val="943164072"/>
+        <c:axId val="933510568"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="943162104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="943164072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="943164072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="943162104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="933510568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="943164072"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="595959"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>109144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1030941</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05F529BA-214A-B16E-6413-D15C736C1021}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>401329</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>32737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>548687</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>144236</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EF4381E-05F0-C1BC-8750-35E21D816B46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>537478</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>367392</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>174174</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E7F67AE-1F48-609C-C01E-C8E91E05B694}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1197429</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>2722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D1211B-EA4D-D63E-2F46-F3F7006548CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>508411</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>3959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ECAC882-B3A7-9ABF-DA8D-FADB79DD3FF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MiguelPC" refreshedDate="44774.034222569448" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{E77D2229-9440-4924-B84C-22B784BFF2AA}">
+  <cacheSource type="external" connectionId="10"/>
+  <cacheFields count="1">
+    <cacheField name="dinero" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5000" maxValue="5000" count="1">
+        <n v="5000"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MiguelPC" refreshedDate="44774.034224884257" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="3" xr:uid="{CBF11666-A0F3-446B-A260-C4CCCD37AD57}">
+  <cacheSource type="external" connectionId="7"/>
+  <cacheFields count="17">
+    <cacheField name="id_cliente" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1" count="1">
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="nombre" numFmtId="0" sqlType="12">
+      <sharedItems count="1">
+        <s v="mario"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="telefono" numFmtId="0" sqlType="12">
+      <sharedItems count="1">
+        <s v="8098102525"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="estado" numFmtId="0" sqlType="12">
+      <sharedItems count="1">
+        <s v="A"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="id_compra" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11" maxValue="16" count="3">
+        <n v="11"/>
+        <n v="15"/>
+        <n v="16"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="id_cliente2" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1" count="1">
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="id_empleado" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1" count="1">
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="id_tipo_pago" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1" count="1">
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="id_sucursal" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2" count="2">
+        <n v="1"/>
+        <n v="2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="id_producto" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="23" maxValue="24" count="2">
+        <n v="23"/>
+        <n v="24"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="monto" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="10" count="1">
+        <n v="10"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="cantidad" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="20" count="1">
+        <n v="20"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="precio" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="200" count="2">
+        <n v="100"/>
+        <n v="200"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="total_compra" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2000" maxValue="2000" count="1">
+        <n v="2000"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="fecha_insercion" numFmtId="0" sqlType="11">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-07-31T00:00:00" maxDate="2022-09-01T00:00:00" count="2">
+        <d v="2022-07-31T00:00:00"/>
+        <d v="2022-08-31T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="estado_compra" numFmtId="0" sqlType="12">
+      <sharedItems count="1">
+        <s v="A"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="estado2" numFmtId="0" sqlType="12">
+      <sharedItems count="1">
+        <s v="A"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MiguelPC" refreshedDate="44774.034227199074" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{037C3EBF-FB1D-4DF4-AF2D-CE32EBC09F11}">
+  <cacheSource type="external" connectionId="8"/>
+  <cacheFields count="3">
+    <cacheField name="id_tipo_pago" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1" count="1">
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="tipo" numFmtId="0" sqlType="12">
+      <sharedItems count="1">
+        <s v="Tarjeta de credito"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="estado" numFmtId="0" sqlType="12">
+      <sharedItems count="1">
+        <s v="A"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MiguelPC" refreshedDate="44774.034229282406" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{CCC3EC51-ECC2-4BF0-98E5-BFAECC287378}">
+  <cacheSource type="external" connectionId="9"/>
+  <cacheFields count="4">
+    <cacheField name="id_sucursal" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="2" count="1">
+        <n v="2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="id_provincia" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="2" count="1">
+        <n v="2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="sucursal" numFmtId="0" sqlType="12">
+      <sharedItems count="1">
+        <s v="Plaza 2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="estado" numFmtId="0" sqlType="12">
+      <sharedItems count="1">
+        <s v="A"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MiguelPC" refreshedDate="44774.034231944446" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="5" xr:uid="{5BC91BA7-3D03-430A-BCFE-216BE4F3BB61}">
+  <cacheSource type="external" connectionId="5"/>
+  <cacheFields count="14">
+    <cacheField name="id_compra" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11" maxValue="15" count="3">
+        <n v="11"/>
+        <n v="12"/>
+        <n v="15"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="id_cliente" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2" count="2">
+        <n v="1"/>
+        <n v="2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="id_empleado" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1" count="1">
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="id_tipo_pago" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1" count="1">
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="id_sucursal" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2" count="2">
+        <n v="1"/>
+        <n v="2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="id_producto" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="23" maxValue="23" count="1">
+        <n v="23"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="monto" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="10" count="1">
+        <n v="10"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="cantidad" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="20" count="1">
+        <n v="20"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="precio" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="200" count="2">
+        <n v="100"/>
+        <n v="200"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="total_compra" numFmtId="0" sqlType="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1000" maxValue="2000" count="2">
+        <n v="2000"/>
+        <n v="1000"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="fecha_insercion" numFmtId="0" sqlType="11">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-07-31T00:00:00" maxDate="2022-08-01T00:00:00" count="1">
+        <d v="2022-07-31T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="estado_compra" numFmtId="0" sqlType="12">
+      <sharedItems count="1">
+        <s v="A"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="estado" numFmtId="0" sqlType="12">
+      <sharedItems count="1">
+        <s v="A"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="nombre_producto" numFmtId="0" sqlType="12">
+      <sharedItems count="2">
+        <s v="candado"/>
+        <s v="BOMBA DE AGUA"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
+  <r>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="3">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EC34BCB0-467B-4596-9EEC-461880C85FF8}" name="TablaDinámica7" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="P39:P40" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="1">
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de dinero" fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="23">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C161928C-A845-4A3F-8DFB-0B1D937366A5}" name="TablaDinámica6" cacheId="65" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="D39:F41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de sucursal" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="19">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{291D03F6-161D-411E-B66E-424CA75ACB37}" name="TablaDinámica5" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="V12:X14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de tipo" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{032FD316-8304-487B-BFEB-7AEAD5351BBD}" name="TablaDinámica4" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="BK4:BL6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de id_cliente" fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E798CB0F-2A75-4263-9B30-CD936169B13C}" name="TablaDinámica2" cacheId="67" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" fieldListSortAscending="1">
+  <location ref="BF5:BG8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="13"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de cantidad" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -708,41 +7198,61 @@
 </queryTable>
 </file>
 
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Consulta desde odbcFerreteria_5" connectionId="6" xr16:uid="{DC707102-5D6A-4A05-BAA9-5B32C233CD71}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" name="nombre_producto" tableColumnId="1"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D80858B7-1F10-435C-A3C9-8D690E89E7D6}" name="Tabla_Consulta_desde_odbcFerreteria_1" displayName="Tabla_Consulta_desde_odbcFerreteria_1" ref="C5:C6" tableType="queryTable" totalsRowShown="0" headerRowDxfId="10" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D80858B7-1F10-435C-A3C9-8D690E89E7D6}" name="Tabla_Consulta_desde_odbcFerreteria_1" displayName="Tabla_Consulta_desde_odbcFerreteria_1" ref="C5:C6" tableType="queryTable" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="C5:C6" xr:uid="{D80858B7-1F10-435C-A3C9-8D690E89E7D6}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4761BFCD-D741-435E-BF9B-BEEF0ADEE919}" uniqueName="1" name="Columna1" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{4761BFCD-D741-435E-BF9B-BEEF0ADEE919}" uniqueName="1" name="Columna1" queryTableFieldId="1" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CCA644BC-0C44-400B-8C9F-2728B316968A}" name="Tabla_Consulta_desde_odbcFerreteria_2" displayName="Tabla_Consulta_desde_odbcFerreteria_2" ref="J5:J6" tableType="queryTable" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CCA644BC-0C44-400B-8C9F-2728B316968A}" name="Tabla_Consulta_desde_odbcFerreteria_2" displayName="Tabla_Consulta_desde_odbcFerreteria_2" ref="J5:J6" tableType="queryTable" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="J5:J6" xr:uid="{CCA644BC-0C44-400B-8C9F-2728B316968A}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{153E1A0C-4AF5-4C2A-A7A0-1B7A05BCD911}" uniqueName="1" name="Columna1" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{153E1A0C-4AF5-4C2A-A7A0-1B7A05BCD911}" uniqueName="1" name="Columna1" queryTableFieldId="1" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{123CBDE5-ECDB-4BEE-9F47-53FFB57F4CCB}" name="Tabla_Consulta_desde_odbcFerreteria_3" displayName="Tabla_Consulta_desde_odbcFerreteria_3" ref="Q5:Q6" tableType="queryTable" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{123CBDE5-ECDB-4BEE-9F47-53FFB57F4CCB}" name="Tabla_Consulta_desde_odbcFerreteria_3" displayName="Tabla_Consulta_desde_odbcFerreteria_3" ref="Q5:Q6" tableType="queryTable" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="Q5:Q6" xr:uid="{123CBDE5-ECDB-4BEE-9F47-53FFB57F4CCB}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{EDD9E717-639B-4BF5-8327-C7FE796BA1A1}" uniqueName="1" name="Columna1" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{EDD9E717-639B-4BF5-8327-C7FE796BA1A1}" uniqueName="1" name="Columna1" queryTableFieldId="1" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E10B269-97C5-482F-9C71-16856F6B35C1}" name="Tabla_Consulta_desde_odbcFerreteria_4" displayName="Tabla_Consulta_desde_odbcFerreteria_4" ref="X5:X6" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6E10B269-97C5-482F-9C71-16856F6B35C1}" name="Tabla_Consulta_desde_odbcFerreteria_4" displayName="Tabla_Consulta_desde_odbcFerreteria_4" ref="X5:X6" tableType="queryTable" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="X5:X6" xr:uid="{6E10B269-97C5-482F-9C71-16856F6B35C1}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{866B5755-A74F-496F-8347-023530D0AA9C}" uniqueName="1" name="Columna1" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{866B5755-A74F-496F-8347-023530D0AA9C}" uniqueName="1" name="Columna1" queryTableFieldId="1" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{22DC6E57-0B78-4F5C-96FA-C9CF165BEA4E}" name="Tabla_Consulta_desde_odbcFerreteria_5" displayName="Tabla_Consulta_desde_odbcFerreteria_5" ref="A20:A21" tableType="queryTable" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A20:A21" xr:uid="{22DC6E57-0B78-4F5C-96FA-C9CF165BEA4E}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{29832406-FF36-40CC-98FB-B30AF620636D}" uniqueName="1" name="nombre_producto" queryTableFieldId="1" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1045,61 +7555,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF861518-2376-46F2-A616-D740DE82B806}">
-  <dimension ref="A1:AC43"/>
+  <dimension ref="A1:BM56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Z43" sqref="Z43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="9" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="16" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="1"/>
+    <col min="16" max="16" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="23" width="11.42578125" style="1"/>
+    <col min="18" max="18" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.42578125" style="1"/>
+    <col min="22" max="22" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.42578125" style="1"/>
+    <col min="25" max="30" width="11.42578125" style="1"/>
+    <col min="31" max="32" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="57" width="11.42578125" style="1"/>
+    <col min="58" max="60" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="61" max="62" width="11.42578125" style="1"/>
+    <col min="63" max="65" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="66" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="36" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:65" ht="35.25" x14ac:dyDescent="0.5">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="2"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
+    <row r="2" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1127,18 +7659,19 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-      <c r="AC2" s="19"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
+    <row r="3" spans="1:65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1166,100 +7699,126 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="19"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="BF3" s="26"/>
+      <c r="BG3" s="26"/>
     </row>
-    <row r="4" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="19"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="BK4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>16</v>
+      </c>
+      <c r="BM4" s="26"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
+    <row r="5" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="6">
         <f>Tabla_Consulta_desde_odbcFerreteria_1[Columna1]</f>
         <v>1</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <f>Tabla_Consulta_desde_odbcFerreteria_2[Columna1]</f>
         <v>1</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="9">
         <f>Tabla_Consulta_desde_odbcFerreteria_3[Columna1]</f>
         <v>3</v>
       </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Y5" s="25">
+      <c r="Y5" s="11">
         <f>Tabla_Consulta_desde_odbcFerreteria_4[Columna1]</f>
         <v>2000</v>
       </c>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="19"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="BF5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH5" s="26"/>
+      <c r="BK5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="BL5" s="18">
+        <v>3</v>
+      </c>
+      <c r="BM5" s="26"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+    <row r="6" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2">
@@ -1283,45 +7842,71 @@
       <c r="X6" s="2">
         <v>2000</v>
       </c>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="19"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="BF6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="BG6" s="18">
+        <v>60</v>
+      </c>
+      <c r="BH6" s="26"/>
+      <c r="BK6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL6" s="18">
+        <v>3</v>
+      </c>
+      <c r="BM6" s="26"/>
     </row>
-    <row r="7" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+    <row r="7" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="21"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="BF7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="BG7" s="18">
+        <v>40</v>
+      </c>
+      <c r="BH7" s="26"/>
+      <c r="BK7" s="26"/>
+      <c r="BL7" s="26"/>
+      <c r="BM7" s="26"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+    <row r="8" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1349,10 +7934,20 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
-      <c r="AC8" s="19"/>
+      <c r="AC8" s="2"/>
+      <c r="BF8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG8" s="18">
+        <v>100</v>
+      </c>
+      <c r="BH8" s="26"/>
+      <c r="BK8" s="26"/>
+      <c r="BL8" s="26"/>
+      <c r="BM8" s="26"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1380,22 +7975,32 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
-      <c r="AC9" s="19"/>
+      <c r="AC9" s="2"/>
+      <c r="BF9" s="26"/>
+      <c r="BG9" s="26"/>
+      <c r="BH9" s="26"/>
+      <c r="BK9" s="26"/>
+      <c r="BL9" s="26"/>
+      <c r="BM9" s="26"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+    <row r="10" spans="1:65" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="D10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="M10" s="21" t="s">
+        <v>14</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1403,34 +8008,38 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
+      <c r="V10" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
-      <c r="AC10" s="19"/>
+      <c r="AC10" s="2"/>
+      <c r="BF10" s="26"/>
+      <c r="BG10" s="26"/>
+      <c r="BH10" s="26"/>
+      <c r="BK10" s="26"/>
+      <c r="BL10" s="26"/>
+      <c r="BM10" s="26"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="14"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="26"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -1442,17 +8051,18 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
-      <c r="AC11" s="19"/>
+      <c r="AC11" s="2"/>
+      <c r="BF11" s="26"/>
+      <c r="BG11" s="26"/>
+      <c r="BH11" s="26"/>
+      <c r="BK11" s="26"/>
+      <c r="BL11" s="26"/>
+      <c r="BM11" s="26"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+    <row r="12" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1466,24 +8076,27 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
+      <c r="V12"/>
+      <c r="W12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="X12"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
-      <c r="AC12" s="19"/>
+      <c r="AC12" s="2"/>
+      <c r="BF12" s="26"/>
+      <c r="BG12" s="26"/>
+      <c r="BH12" s="26"/>
+      <c r="BK12" s="26"/>
+      <c r="BL12" s="26"/>
+      <c r="BM12" s="26"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+    <row r="13" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1491,30 +8104,32 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
+      <c r="V13"/>
+      <c r="W13" t="s">
+        <v>18</v>
+      </c>
+      <c r="X13" t="s">
+        <v>8</v>
+      </c>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
-      <c r="AC13" s="19"/>
+      <c r="AC13" s="2"/>
+      <c r="BF13" s="26"/>
+      <c r="BG13" s="26"/>
+      <c r="BH13" s="26"/>
+      <c r="BK13" s="26"/>
+      <c r="BL13" s="26"/>
+      <c r="BM13" s="26"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+    <row r="14" spans="1:65" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1522,30 +8137,34 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
+      <c r="V14" t="s">
+        <v>19</v>
+      </c>
+      <c r="W14" s="18">
+        <v>1</v>
+      </c>
+      <c r="X14" s="18">
+        <v>1</v>
+      </c>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="19"/>
+      <c r="AC14" s="2"/>
+      <c r="BF14" s="26"/>
+      <c r="BG14" s="26"/>
+      <c r="BH14" s="26"/>
+      <c r="BK14" s="26"/>
+      <c r="BL14" s="26"/>
+      <c r="BM14" s="26"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1553,30 +8172,28 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
-      <c r="AC15" s="19"/>
+      <c r="AC15" s="2"/>
+      <c r="BF15" s="26"/>
+      <c r="BG15" s="26"/>
+      <c r="BH15" s="26"/>
+      <c r="BK15" s="26"/>
+      <c r="BL15" s="26"/>
+      <c r="BM15" s="26"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+    <row r="16" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1584,30 +8201,28 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="22"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
-      <c r="AC16" s="19"/>
+      <c r="AC16" s="2"/>
+      <c r="BF16" s="26"/>
+      <c r="BG16" s="26"/>
+      <c r="BH16" s="26"/>
+      <c r="BK16" s="26"/>
+      <c r="BL16" s="26"/>
+      <c r="BM16" s="26"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+    <row r="17" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1615,61 +8230,57 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
-      <c r="AC17" s="19"/>
+      <c r="AC17" s="2"/>
+      <c r="BF17" s="26"/>
+      <c r="BG17" s="26"/>
+      <c r="BH17" s="26"/>
+      <c r="BK17" s="26"/>
+      <c r="BL17" s="26"/>
+      <c r="BM17" s="26"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="22"/>
+      <c r="M18" s="4"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
-      <c r="AC18" s="19"/>
+      <c r="AC18" s="2"/>
+      <c r="BF18" s="26"/>
+      <c r="BG18" s="26"/>
+      <c r="BH18" s="26"/>
+      <c r="BK18" s="26"/>
+      <c r="BL18" s="26"/>
+      <c r="BM18" s="26"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+    <row r="19" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1677,30 +8288,30 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
-      <c r="AC19" s="19"/>
+      <c r="AC19" s="2"/>
+      <c r="BF19" s="26"/>
+      <c r="BG19" s="26"/>
+      <c r="BH19" s="26"/>
+      <c r="BK19" s="26"/>
+      <c r="BL19" s="26"/>
+      <c r="BM19" s="26"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+    <row r="20" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1708,30 +8319,30 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
-      <c r="AC20" s="19"/>
+      <c r="AC20" s="2"/>
+      <c r="BF20" s="26"/>
+      <c r="BG20" s="26"/>
+      <c r="BH20" s="26"/>
+      <c r="BK20" s="26"/>
+      <c r="BL20" s="26"/>
+      <c r="BM20" s="26"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+    <row r="21" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1739,30 +8350,28 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
-      <c r="AC21" s="19"/>
+      <c r="AC21" s="2"/>
+      <c r="BF21" s="26"/>
+      <c r="BG21" s="26"/>
+      <c r="BH21" s="26"/>
+      <c r="BK21" s="26"/>
+      <c r="BL21" s="26"/>
+      <c r="BM21" s="26"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+    <row r="22" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1770,30 +8379,25 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
-      <c r="AC22" s="19"/>
+      <c r="AC22" s="2"/>
+      <c r="BF22" s="26"/>
+      <c r="BG22" s="26"/>
+      <c r="BH22" s="26"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+    <row r="23" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1801,30 +8405,22 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
-      <c r="AC23" s="19"/>
+      <c r="AC23" s="2"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+    <row r="24" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -1832,30 +8428,22 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
-      <c r="AC24" s="19"/>
+      <c r="AC24" s="2"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+    <row r="25" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1863,30 +8451,22 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
-      <c r="AC25" s="19"/>
+      <c r="AC25" s="2"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+    <row r="26" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1894,30 +8474,22 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
-      <c r="AC26" s="19"/>
+      <c r="AC26" s="2"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+    <row r="27" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1925,30 +8497,22 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
-      <c r="AC27" s="19"/>
+      <c r="AC27" s="2"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+    <row r="28" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -1956,30 +8520,22 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
-      <c r="AC28" s="19"/>
+      <c r="AC28" s="2"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+    <row r="29" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -1987,25 +8543,20 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
-      <c r="AC29" s="19"/>
+      <c r="AC29" s="2"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+    <row r="30" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2018,9 +8569,6 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -2031,12 +8579,10 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
-      <c r="AC30" s="19"/>
+      <c r="AC30" s="2"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+    <row r="31" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -2062,23 +8608,16 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
-      <c r="AC31" s="19"/>
+      <c r="AC31" s="2"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+    <row r="32" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" s="4"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -2093,23 +8632,33 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
-      <c r="AC32" s="19"/>
+      <c r="AC32" s="2"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+    <row r="33" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="25" t="str">
+        <f ca="1">TEXT((MONTH(TODAY())-1) *29,"MMMM")</f>
+        <v>julio</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="20" t="str">
+        <f>Tabla_Consulta_desde_odbcFerreteria_5[nombre_producto]</f>
+        <v>candado</v>
+      </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="N33" s="4"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -2124,10 +8673,10 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
-      <c r="AC33" s="19"/>
+      <c r="AC33" s="2"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
+      <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2155,10 +8704,10 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
-      <c r="AC34" s="19"/>
+      <c r="AC34" s="2"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
+      <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2186,10 +8735,10 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
-      <c r="AC35" s="19"/>
+      <c r="AC35" s="2"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
+      <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2217,13 +8766,15 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
-      <c r="AC36" s="19"/>
+      <c r="AC36" s="2"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
+    <row r="37" spans="1:29" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2235,7 +8786,9 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
+      <c r="P37" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
@@ -2248,10 +8801,10 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
-      <c r="AC37" s="19"/>
+      <c r="AC37" s="2"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
+      <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2279,15 +8832,17 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
-      <c r="AC38" s="19"/>
+      <c r="AC38" s="2"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
+      <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="26"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -2297,9 +8852,11 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
+      <c r="P39" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
@@ -2310,15 +8867,19 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
-      <c r="AC39" s="19"/>
+      <c r="AC39" s="2"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
+      <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -2328,9 +8889,11 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
+      <c r="P40" s="28">
+        <v>5000</v>
+      </c>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
@@ -2341,15 +8904,21 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
-      <c r="AC40" s="19"/>
+      <c r="AC40" s="2"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
+      <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="D41" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="28">
+        <v>1</v>
+      </c>
+      <c r="F41" s="28">
+        <v>1</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -2359,9 +8928,9 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
@@ -2372,40 +8941,151 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
-      <c r="AC41" s="19"/>
+      <c r="AC41" s="2"/>
     </row>
-    <row r="42" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="24"/>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
     </row>
-    <row r="43" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+    </row>
+    <row r="49" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
+    </row>
+    <row r="50" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
+    </row>
+    <row r="51" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+    </row>
+    <row r="52" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+    </row>
+    <row r="53" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="26"/>
+    </row>
+    <row r="54" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="26"/>
+    </row>
+    <row r="55" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="26"/>
+    </row>
+    <row r="56" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="26"/>
+      <c r="R56" s="26"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="D3:G4"/>
@@ -2419,12 +9099,14 @@
     <mergeCell ref="K3:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="4">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
+  <tableParts count="5">
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>